--- a/MKB10-группы.xlsx
+++ b/MKB10-группы.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C991"/>
+  <dimension ref="A1:C988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14530,37 +14530,6 @@
         </is>
       </c>
     </row>
-    <row r="989"/>
-    <row r="990">
-      <c r="A990" s="2" t="inlineStr">
-        <is>
-          <t>D50</t>
-        </is>
-      </c>
-      <c r="B990" s="2" t="inlineStr">
-        <is>
-          <t>Железодефицитная анемия</t>
-        </is>
-      </c>
-      <c r="C990" s="2" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>D50</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>D50.0</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>Железодефицитная анемия вторичная вследствие потери крови</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
